--- a/results/ml models/ANN results.xlsx
+++ b/results/ml models/ANN results.xlsx
@@ -1,70 +1,83 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitaetstgallen-my.sharepoint.com/personal/ruben_ernst_student_unisg_ch/Documents/BA/commodities-pricing/results/ml models/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_D852989025269358BB7206F7463E9C0EAF3B593B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="15360" windowHeight="12620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t xml:space="preserve">commodity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n_lags</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hidden_config</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mape</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APSP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13, 18, 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10, 20, 18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dubai Fateh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19, 18, 8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NatGas Henry Hub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18, 20, 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WTI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18, 4, 14</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+  <si>
+    <t>commodity</t>
+  </si>
+  <si>
+    <t>n_lags</t>
+  </si>
+  <si>
+    <t>hidden_config</t>
+  </si>
+  <si>
+    <t>mae</t>
+  </si>
+  <si>
+    <t>mape</t>
+  </si>
+  <si>
+    <t>APSP</t>
+  </si>
+  <si>
+    <t>13, 18, 5</t>
+  </si>
+  <si>
+    <t>Brent</t>
+  </si>
+  <si>
+    <t>17, 18, 4</t>
+  </si>
+  <si>
+    <t>Dubai Fateh</t>
+  </si>
+  <si>
+    <t>19, 18, 8</t>
+  </si>
+  <si>
+    <t>LNG Asia</t>
+  </si>
+  <si>
+    <t>19, 5, 10</t>
+  </si>
+  <si>
+    <t>NatGas Henry Hub</t>
+  </si>
+  <si>
+    <t>18, 20, 10</t>
+  </si>
+  <si>
+    <t>WTI</t>
+  </si>
+  <si>
+    <t>18, 4, 14</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -97,9 +110,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -381,14 +403,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -405,93 +429,110 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>6</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.838517018773227</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.0185457359715253</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="D2">
+        <v>0.83851701877322704</v>
+      </c>
+      <c r="E2">
+        <v>1.8545735971525298E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="n">
-        <v>5</v>
+      <c r="B3">
+        <v>4</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.913355496316962</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.01879460588385</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="D3">
+        <v>0.71714735441288902</v>
+      </c>
+      <c r="E3">
+        <v>1.5588700274054301E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>5</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>1.10293854642742</v>
       </c>
-      <c r="E4" t="n">
-        <v>0.0235118280651879</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="E4">
+        <v>2.3511828065187899E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="n">
-        <v>6</v>
+      <c r="B5">
+        <v>5</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" t="n">
-        <v>0.165521373419267</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.0541176941542943</v>
-      </c>
-    </row>
-    <row r="6">
+      <c r="D5">
+        <v>0.47827423015610698</v>
+      </c>
+      <c r="E5">
+        <v>5.8000287702216699E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" t="n">
-        <v>5</v>
+      <c r="B6">
+        <v>6</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
+        <v>0.16552137341926701</v>
+      </c>
+      <c r="E6">
+        <v>5.41176941542943E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7">
         <v>0.967614248551802</v>
       </c>
-      <c r="E6" t="n">
-        <v>0.021113757874648</v>
+      <c r="E7">
+        <v>2.1113757874648E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/results/ml models/ANN results.xlsx
+++ b/results/ml models/ANN results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitaetstgallen-my.sharepoint.com/personal/ruben_ernst_student_unisg_ch/Documents/BA/commodities-pricing/results/ml models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_D852989025269358BB7206F7463E9C0EAF3B593B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_D852989025269358BB7206F7463E9C0EAF3B593B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DEF32A85-592F-40AE-8D76-C41CF0AB275F}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="15360" windowHeight="12620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -77,6 +77,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="0.0000000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -106,11 +109,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -410,9 +414,12 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -429,7 +436,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -446,7 +453,7 @@
         <v>1.8545735971525298E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -463,7 +470,7 @@
         <v>1.5588700274054301E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -480,7 +487,7 @@
         <v>2.3511828065187899E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -493,11 +500,11 @@
       <c r="D5">
         <v>0.47827423015610698</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>5.8000287702216699E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -514,7 +521,7 @@
         <v>5.41176941542943E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>

--- a/results/ml models/ANN results.xlsx
+++ b/results/ml models/ANN results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitaetstgallen-my.sharepoint.com/personal/ruben_ernst_student_unisg_ch/Documents/BA/commodities-pricing/results/ml models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_D852989025269358BB7206F7463E9C0EAF3B593B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DEF32A85-592F-40AE-8D76-C41CF0AB275F}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="11_D852989025269358BB7206F7463E9C0EAF3B593B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8310602A-95F5-FC49-9738-D0A6AFC6891C}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="25100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -78,7 +78,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.0000000"/>
+    <numFmt numFmtId="164" formatCode="0.0000000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -111,10 +111,10 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -411,15 +411,15 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="G6" sqref="G6:L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -436,7 +436,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -453,7 +453,7 @@
         <v>1.8545735971525298E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -470,7 +470,7 @@
         <v>1.5588700274054301E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -487,7 +487,7 @@
         <v>2.3511828065187899E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -504,7 +504,7 @@
         <v>5.8000287702216699E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -521,7 +521,7 @@
         <v>5.41176941542943E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>15</v>
       </c>
